--- a/copilot-python-excel-eda-demo.xlsx
+++ b/copilot-python-excel-eda-demo.xlsx
@@ -1,26 +1,367 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B828DA3A-8C6C-41AB-A2DF-2A41816DD897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A6D6F71-FB3E-49FB-9116-EB65486E2511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="1" r:id="rId1"/>
+    <sheet name="Analysis1" sheetId="2" r:id="rId2"/>
+    <sheet name="Analysis2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="12">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="21"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="24"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="28"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="31"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="35"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="39"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="12">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
+    <bk>
+      <rc t="2" v="7"/>
+    </bk>
+    <bk>
+      <rc t="2" v="8"/>
+    </bk>
+    <bk>
+      <rc t="2" v="9"/>
+    </bk>
+    <bk>
+      <rc t="2" v="10"/>
+    </bk>
+    <bk>
+      <rc t="2" v="11"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization userModified="1">
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>mpg_df=xl(%P2%, headers=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Data quality and structure summary
+# Check for missing values, data types, and basic statistics
+missing = mpg_df.isnull().sum()
+dtypes = mpg_df.dtypes
+stats = mpg_df.describe(include='all')
+# Combine into a summary DataFrame for review
+summary = pd.DataFrame({'missing': missing, 'dtype': dtypes})
+summary</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Visualize distributions and relationships among key variables
+# Visualize distributions and relationships among key variables
+plt.rcParams['font.family'] = ['Meiryo','Batang','TH SarabunPSK','SimHei','DejaVu Sans']
+fig, axes = plt.subplots(3, 1, figsize=(8, 12))
+# Histogram for mpg
+axes[0].hist(mpg_df['mpg'].dropna(), bins=20, color='skyblue', edgecolor='black')
+axes[0].set_title('Distribution of MPG')
+axes[0].set_xlabel('MPG')
+axes[0].set_ylabel('Frequency')
+# Boxplot for horsepower (excluding missing values)
+axes[1].boxplot(mpg_df['horsepower'].dropna(), vert=False)
+axes[1].set_title('Boxplot of Horsepower')
+axes[1].set_xlabel('Horsepower')
+# Scatter plot: Weight vs. MPG
+axes[2].scatter(mpg_df['weight'], mpg_df['mpg'], alpha=0.6)
+axes[2].set_title('Weight vs. MPG')
+axes[2].set_xlabel('Weight')
+axes[2].set_ylabel('MPG')
+plt.tight_layout()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Correlation analysis and group comparison
+# Correlation analysis and group comparison
+# Calculate correlation matrix for numerical variables
+corr_matrix = mpg_df[['mpg', 'cylinders', 'displacement', 'horsepower', 'weight', 'acceleration']].corr()
+# Group comparison: mean mpg by origin
+mpg_by_origin = mpg_df.groupby('origin')['mpg'].mean()
+# Combine results for review
+corr_matrix, mpg_by_origin</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Correlation matrix for numerical variables
+# Show correlation matrix for numerical variables
+corr_matrix</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Mean mpg by origin group
+#Mean mpg by origin group
+# Show mean mpg for each origin group
+mpg_by_origin</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Basic statistics for mpg, cylinders, and horsepower
+# Summarize basic statistics for mpg, cylinders, and horsepower
+from scipy import stats
+# Prepare a summary dictionary
+summary_stats = {}
+for col in ['mpg', 'cylinders', 'horsepower']:
+    col_data = mpg_df[col].dropna()
+    summary_stats[col] = {
+        'mean': col_data.mean(),
+        'median': col_data.median(),
+        'mode': col_data.mode().iloc[0] if not col_data.mode().empty else None,
+        'range': col_data.max() - col_data.min()
+    }
+# Convert to DataFrame for display
+summary_stats_df = pd.DataFrame(summary_stats)
+summary_stats_df</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Missing values and data types summary
+# Summary of missing values and data types for each column
+missing = mpg_df.isnull().sum()
+dtypes = mpg_df.dtypes
+summary = pd.DataFrame({'missing': missing, 'dtype': dtypes})
+summary</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Histograms for mpg, horsepower, and weight
+#Histograms for mpg, horsepower, and weight
+plt.rcParams['font.family'] = ['Meiryo','Batang','TH SarabunPSK','SimHei','DejaVu Sans']
+fig, axes = plt.subplots(3, 1, figsize=(8, 12))
+# Histogram for mpg
+axes[0].hist(mpg_df['mpg'].dropna(), bins=20, color='skyblue', edgecolor='black')
+axes[0].set_title('Distribution of MPG')
+axes[0].set_xlabel('MPG')
+axes[0].set_ylabel('Frequency')
+# Histogram for horsepower (excluding missing values)
+axes[1].hist(mpg_df['horsepower'].dropna(), bins=20, color='salmon', edgecolor='black')
+axes[1].set_title('Distribution of Horsepower')
+axes[1].set_xlabel('Horsepower')
+axes[1].set_ylabel('Frequency')
+# Histogram for weight
+axes[2].hist(mpg_df['weight'].dropna(), bins=20, color='lightgreen', edgecolor='black')
+axes[2].set_title('Distribution of Weight')
+axes[2].set_xlabel('Weight')
+axes[2].set_ylabel('Frequency')
+plt.tight_layout()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Box plots of mpg by top 10 car manufacturers
+#Box plots for mpg by manufacturer (top 10 by count)
+# Extract manufacturer from 'name' (first word)
+mpg_df['manufacturer'] = mpg_df['name'].str.split().str[0]
+# Find top 10 manufacturers by count
+top_manufacturers = mpg_df['manufacturer'].value_counts().nlargest(10).index
+filtered_df = mpg_df[mpg_df['manufacturer'].isin(top_manufacturers)]
+plt.rcParams['font.family'] = ['Meiryo','Batang','TH SarabunPSK','SimHei','DejaVu Sans']
+plt.figure(figsize=(10, 6))
+filtered_df.boxplot(column='mpg', by='manufacturer', grid=False)
+plt.title('MPG by Manufacturer (Top 10)')
+plt.suptitle('')
+plt.xlabel('Manufacturer')
+plt.ylabel('MPG')
+plt.xticks(rotation=45)
+plt.tight_layout()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Correlation matrix for mpg, cylinders, displacement, horsepower, and weight
+#Correlation matrix for selected features
+corr_matrix = mpg_df[['mpg', 'cylinders', 'displacement', 'horsepower', 'weight']].corr()
+corr_matrix</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Bar chart of average mpg by car origin
+#Bar chart comparing average mpg by car origin
+# Calculate mean mpg by origin
+grouped = mpg_df.groupby('origin')['mpg'].mean().reindex(['usa', 'europe', 'japan'])
+plt.rcParams['font.family'] = ['Meiryo','Batang','TH SarabunPSK','SimHei','DejaVu Sans']
+plt.figure(figsize=(6, 4))
+grouped.plot(kind='bar', color=['#1f77b4', '#ff7f0e', '#2ca02c'])
+plt.title('Average MPG by Car Origin')
+plt.xlabel('Origin')
+plt.ylabel('Average MPG')
+plt.xticks(rotation=0)
+plt.tight_layout()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Heatmap of correlation matrix for selected variables
+# Set font for compatibility
+plt.rcParams['font.family'] = ['Meiryo','Batang','TH SarabunPSK','SimHei','DejaVu Sans']
+# Select relevant columns
+cols = ['mpg', 'cylinders', 'displacement', 'horsepower', 'weight']
+correlation_matrix = mpg_df[cols].corr()
+# Create heatmap
+fig, ax = plt.subplots(figsize=(7, 5))
+sns.heatmap(correlation_matrix, annot=True, cmap='coolwarm', fmt='.2f', ax=ax)
+ax.set_title('Correlation Heatmap')
+ax.set_xlabel('Variables')
+ax.set_ylabel('Variables')
+plt.tight_layout()
+plt.show()</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="333">
   <si>
     <t>mpg</t>
   </si>
@@ -971,13 +1312,61 @@
   </si>
   <si>
     <t>chevy s-10</t>
+  </si>
+  <si>
+    <t>Analysis Sheet</t>
+  </si>
+  <si>
+    <t>This sheet will include all the Python formulas generated by Copilot.</t>
+  </si>
+  <si>
+    <t>Load data from mpg, mpg</t>
+  </si>
+  <si>
+    <t>Preview</t>
+  </si>
+  <si>
+    <t>Data quality and structure summary</t>
+  </si>
+  <si>
+    <t>Visualize distributions and relationships among key variables</t>
+  </si>
+  <si>
+    <t>Correlation analysis and group comparison</t>
+  </si>
+  <si>
+    <t>Correlation matrix for numerical variables</t>
+  </si>
+  <si>
+    <t>Mean mpg by origin group</t>
+  </si>
+  <si>
+    <t>Basic statistics for mpg, cylinders, and horsepower</t>
+  </si>
+  <si>
+    <t>Missing values and data types summary</t>
+  </si>
+  <si>
+    <t>Histograms for mpg, horsepower, and weight</t>
+  </si>
+  <si>
+    <t>Box plots of mpg by top 10 car manufacturers</t>
+  </si>
+  <si>
+    <t>Correlation matrix for mpg, cylinders, displacement, horsepower, and weight</t>
+  </si>
+  <si>
+    <t>Bar chart of average mpg by car origin</t>
+  </si>
+  <si>
+    <t>Heatmap of correlation matrix for selected variables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -1108,6 +1497,30 @@
     <font>
       <sz val="16"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF156082"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF156082"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1454,8 +1867,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1512,6 +1928,1045 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" title="Visualize distributions and relationships among key variables">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E5B3553-B6D8-C81A-6353-4C29F8FA9958}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A40"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="10791825"/>
+          <a:ext cx="2832847" cy="4267200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" title="Histograms for mpg, horsepower, and weight">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F77284-C112-9324-F928-CC211F329C03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A118"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="31594425"/>
+          <a:ext cx="2832847" cy="4267200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406848</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" title="Box plots of mpg by top 10 car manufacturers">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E029E5E3-8892-4C2C-51D3-F7E7FD702754}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A138"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="36928425"/>
+          <a:ext cx="5893248" cy="4267200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>54708</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" title="Bar chart of average mpg by car origin">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1011A9CE-73CA-9EFD-DC1F-57480E1B3D5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A170"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="45462825"/>
+          <a:ext cx="6455508" cy="4267200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" title="Heatmap of correlation matrix for selected variables">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D797ED22-8663-F37C-5BD8-7B24ACE282D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis2!A24"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6524625"/>
+          <a:ext cx="5913120" cy="4267200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="11">
+  <a r="12" c="10">
+    <v t="s"/>
+    <v t="s">mpg</v>
+    <v t="s">cylinders</v>
+    <v t="s">displacement</v>
+    <v t="s">horsepower</v>
+    <v t="s">weight</v>
+    <v t="s">acceleration</v>
+    <v t="s">model_year</v>
+    <v t="s">origin</v>
+    <v t="s">name</v>
+    <v>0</v>
+    <v>18</v>
+    <v>8</v>
+    <v>307</v>
+    <v>130</v>
+    <v>3504</v>
+    <v>12</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v t="s">chevrolet chevelle malibu</v>
+    <v>1</v>
+    <v>15</v>
+    <v>8</v>
+    <v>350</v>
+    <v>165</v>
+    <v>3693</v>
+    <v>11.5</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v t="s">buick skylark 320</v>
+    <v>2</v>
+    <v>18</v>
+    <v>8</v>
+    <v>318</v>
+    <v>150</v>
+    <v>3436</v>
+    <v>11</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v t="s">plymouth satellite</v>
+    <v>3</v>
+    <v>16</v>
+    <v>8</v>
+    <v>304</v>
+    <v>150</v>
+    <v>3433</v>
+    <v>12</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v t="s">amc rebel sst</v>
+    <v>4</v>
+    <v>17</v>
+    <v>8</v>
+    <v>302</v>
+    <v>140</v>
+    <v>3449</v>
+    <v>10.5</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v t="s">ford torino</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v>393</v>
+    <v>27</v>
+    <v>4</v>
+    <v>140</v>
+    <v>86</v>
+    <v>2790</v>
+    <v>15.6</v>
+    <v>82</v>
+    <v t="s">usa</v>
+    <v t="s">ford mustang gl</v>
+    <v>394</v>
+    <v>44</v>
+    <v>4</v>
+    <v>97</v>
+    <v>52</v>
+    <v>2130</v>
+    <v>24.6</v>
+    <v>82</v>
+    <v t="s">europe</v>
+    <v t="s">vw pickup</v>
+    <v>395</v>
+    <v>32</v>
+    <v>4</v>
+    <v>135</v>
+    <v>84</v>
+    <v>2295</v>
+    <v>11.6</v>
+    <v>82</v>
+    <v t="s">usa</v>
+    <v t="s">dodge rampage</v>
+    <v>396</v>
+    <v>28</v>
+    <v>4</v>
+    <v>120</v>
+    <v>79</v>
+    <v>2625</v>
+    <v>18.600000000000001</v>
+    <v>82</v>
+    <v t="s">usa</v>
+    <v t="s">ford ranger</v>
+    <v>397</v>
+    <v>31</v>
+    <v>4</v>
+    <v>119</v>
+    <v>82</v>
+    <v>2720</v>
+    <v>19.399999999999999</v>
+    <v>82</v>
+    <v t="s">usa</v>
+    <v t="s">chevy s-10</v>
+  </a>
+  <a r="10" c="3">
+    <v t="s"/>
+    <v t="s">missing</v>
+    <v t="s">dtype</v>
+    <v t="s">mpg</v>
+    <v>0</v>
+    <v t="s">&lt;Float64DType&gt;</v>
+    <v t="s">cylinders</v>
+    <v>0</v>
+    <v t="s">&lt;Int64DType&gt;</v>
+    <v t="s">displacement</v>
+    <v>0</v>
+    <v t="s">&lt;Float64DType&gt;</v>
+    <v t="s">horsepower</v>
+    <v>6</v>
+    <v t="s">&lt;Float64DType&gt;</v>
+    <v t="s">weight</v>
+    <v>0</v>
+    <v t="s">&lt;Int64DType&gt;</v>
+    <v t="s">acceleration</v>
+    <v>0</v>
+    <v t="s">&lt;Float64DType&gt;</v>
+    <v t="s">model_year</v>
+    <v>0</v>
+    <v t="s">&lt;Int64DType&gt;</v>
+    <v t="s">origin</v>
+    <v>0</v>
+    <v t="s">&lt;ObjectDType&gt;</v>
+    <v t="s">name</v>
+    <v>0</v>
+    <v t="s">&lt;ObjectDType&gt;</v>
+  </a>
+  <a r="2">
+    <v>790</v>
+    <v>1190</v>
+  </a>
+  <a r="2">
+    <v t="s">&lt;DataFrame&gt;</v>
+    <v t="s">&lt;Series&gt;</v>
+  </a>
+  <a r="7" c="7">
+    <v t="s"/>
+    <v t="s">mpg</v>
+    <v t="s">cylinders</v>
+    <v t="s">displacement</v>
+    <v t="s">horsepower</v>
+    <v t="s">weight</v>
+    <v t="s">acceleration</v>
+    <v t="s">mpg</v>
+    <v>1</v>
+    <v>-0.77539628542055394</v>
+    <v>-0.80420282480589789</v>
+    <v>-0.77842678389777609</v>
+    <v>-0.8317409332443344</v>
+    <v>0.42028891210165054</v>
+    <v t="s">cylinders</v>
+    <v>-0.77539628542055394</v>
+    <v>1</v>
+    <v>0.95072139013924151</v>
+    <v>0.84298335691865678</v>
+    <v>0.89601679545339441</v>
+    <v>-0.50541948905217582</v>
+    <v t="s">displacement</v>
+    <v>-0.80420282480589789</v>
+    <v>0.95072139013924151</v>
+    <v>1</v>
+    <v>0.89725700184347001</v>
+    <v>0.93282414684163395</v>
+    <v>-0.54368408350092989</v>
+    <v t="s">horsepower</v>
+    <v>-0.77842678389777609</v>
+    <v>0.84298335691865678</v>
+    <v>0.89725700184347001</v>
+    <v>1</v>
+    <v>0.86453773757414554</v>
+    <v>-0.68919551033423765</v>
+    <v t="s">weight</v>
+    <v>-0.8317409332443344</v>
+    <v>0.89601679545339441</v>
+    <v>0.93282414684163395</v>
+    <v>0.86453773757414554</v>
+    <v>1</v>
+    <v>-0.4174573199403932</v>
+    <v t="s">acceleration</v>
+    <v>0.42028891210165054</v>
+    <v>-0.50541948905217582</v>
+    <v>-0.54368408350092989</v>
+    <v>-0.68919551033423765</v>
+    <v>-0.4174573199403932</v>
+    <v>1</v>
+  </a>
+  <a r="4" c="2">
+    <v t="s">origin</v>
+    <v t="s">mpg</v>
+    <v t="s">europe</v>
+    <v>27.891428571428573</v>
+    <v t="s">japan</v>
+    <v>30.450632911392404</v>
+    <v t="s">usa</v>
+    <v>20.083534136546184</v>
+  </a>
+  <a r="5" c="4">
+    <v t="s"/>
+    <v t="s">mpg</v>
+    <v t="s">cylinders</v>
+    <v t="s">horsepower</v>
+    <v t="s">mean</v>
+    <v>23.514572864321607</v>
+    <v>5.4547738693467336</v>
+    <v>104.46938775510205</v>
+    <v t="s">median</v>
+    <v>23</v>
+    <v>4</v>
+    <v>93.5</v>
+    <v t="s">mode</v>
+    <v>13</v>
+    <v>4</v>
+    <v>150</v>
+    <v t="s">range</v>
+    <v>37.6</v>
+    <v>5</v>
+    <v>184</v>
+  </a>
+  <a r="2">
+    <v>627</v>
+    <v>454</v>
+  </a>
+  <a r="6" c="6">
+    <v t="s"/>
+    <v t="s">mpg</v>
+    <v t="s">cylinders</v>
+    <v t="s">displacement</v>
+    <v t="s">horsepower</v>
+    <v t="s">weight</v>
+    <v t="s">mpg</v>
+    <v>1</v>
+    <v>-0.77539628542055394</v>
+    <v>-0.80420282480589789</v>
+    <v>-0.77842678389777609</v>
+    <v>-0.8317409332443344</v>
+    <v t="s">cylinders</v>
+    <v>-0.77539628542055394</v>
+    <v>1</v>
+    <v>0.95072139013924151</v>
+    <v>0.84298335691865678</v>
+    <v>0.89601679545339441</v>
+    <v t="s">displacement</v>
+    <v>-0.80420282480589789</v>
+    <v>0.95072139013924151</v>
+    <v>1</v>
+    <v>0.89725700184347001</v>
+    <v>0.93282414684163395</v>
+    <v t="s">horsepower</v>
+    <v>-0.77842678389777609</v>
+    <v>0.84298335691865678</v>
+    <v>0.89725700184347001</v>
+    <v>1</v>
+    <v>0.86453773757414554</v>
+    <v t="s">weight</v>
+    <v>-0.8317409332443344</v>
+    <v>0.89601679545339441</v>
+    <v>0.93282414684163395</v>
+    <v>0.86453773757414554</v>
+    <v>1</v>
+  </a>
+  <a r="2">
+    <v>590</v>
+    <v>390</v>
+  </a>
+  <a r="2">
+    <v>679</v>
+    <v>490</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="40">
+  <rv s="0">
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">      mpg  cylinders  displacement  horsepower  weight  acceleration  \
+0    18.0          8         307.0       130.0    3504          12.0   
+1    15.0          8         350.0       165.0    3693          11.5   
+2    18.0          8         318.0  ...</v>
+    <v>1</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>4</v>
+    <v>3</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">              missing    dtype
+mpg                 0  float64
+cylinders           0    int64
+displacement        0  float64
+horsepower          6  float64
+weight              0    int64
+acceleration        0  float64
+model_year          0    int64
+orig...</v>
+    <v>4</v>
+    <v>2</v>
+  </rv>
+  <rv s="3">
+    <v>0</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>5</v>
+    <v>6</v>
+    <v>7</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=790x1190 at 0x7F00C2B76EA0&gt;</v>
+    <v>8</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+  </rv>
+  <rv s="1">
+    <v>tuple</v>
+    <v>7</v>
+    <v>10</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'tuple'&gt;</v>
+    <v>tuple</v>
+    <v>(                   mpg  cylinders  displacement  horsepower    weight  \
+mpg           1.000000  -0.775396     -0.804203   -0.778427 -0.831741   
+cylinders    -0.775396   1.000000      0.950721    0.842983  0.896017   
+displacement -0.804203   0.95072...</v>
+    <v>11</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>9</v>
+    <v>13</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">                   mpg  cylinders  displacement  horsepower    weight  \
+mpg           1.000000  -0.775396     -0.804203   -0.778427 -0.831741   
+cylinders    -0.775396   1.000000      0.950721    0.842983  0.896017   
+displacement -0.804203   0.950721...</v>
+    <v>14</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <v>Series</v>
+    <v>11</v>
+    <v>16</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.series.Series'&gt;</v>
+    <v>Series</v>
+    <v>origin
+europe    27.891429
+japan     30.450633
+usa       20.083534
+Name: mpg, dtype: float64</v>
+    <v>17</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>13</v>
+    <v>19</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">              mpg  cylinders  horsepower
+mean    23.514573   5.454774  104.469388
+median  23.000000   4.000000   93.500000
+mode    13.000000   4.000000  150.000000
+range   37.600000   5.000000  184.000000</v>
+    <v>20</v>
+    <v>2</v>
+  </rv>
+  <rv s="3">
+    <v>1</v>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>5</v>
+    <v>22</v>
+    <v>7</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=790x1190 at 0x7F00C2BDFEC0&gt;</v>
+    <v>23</v>
+    <v>2</v>
+  </rv>
+  <rv s="3">
+    <v>2</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>7</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>5</v>
+    <v>25</v>
+    <v>26</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=627x454 at 0x7F00C295F7D0&gt;</v>
+    <v>27</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>15</v>
+    <v>29</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">                   mpg  cylinders  displacement  horsepower    weight
+mpg           1.000000  -0.775396     -0.804203   -0.778427 -0.831741
+cylinders    -0.775396   1.000000      0.950721    0.842983  0.896017
+displacement -0.804203   0.950721      1.0...</v>
+    <v>30</v>
+    <v>2</v>
+  </rv>
+  <rv s="3">
+    <v>3</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>5</v>
+    <v>32</v>
+    <v>33</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=590x390 at 0x7F00C2BFD340&gt;</v>
+    <v>34</v>
+    <v>2</v>
+  </rv>
+  <rv s="3">
+    <v>4</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>10</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>5</v>
+    <v>36</v>
+    <v>37</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=679x490 at 0x7F00C2B74AA0&gt;</v>
+    <v>38</v>
+    <v>2</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_Format" t="spb"/>
+    <k n="image" t="r"/>
+    <k n="size" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="16">
+    <spb s="0">
+      <v>398</v>
+      <v>9</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+    <spb s="0">
+      <v>9</v>
+      <v>2</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>3</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+    </spb>
+    <spb s="4">
+      <v>2</v>
+      <v>1</v>
+      <v>tuple</v>
+      <v>arrayPreview</v>
+    </spb>
+    <spb s="1">
+      <v>6</v>
+    </spb>
+    <spb s="0">
+      <v>6</v>
+      <v>6</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>8</v>
+    </spb>
+    <spb s="0">
+      <v>3</v>
+      <v>1</v>
+      <v>Series</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>10</v>
+    </spb>
+    <spb s="0">
+      <v>4</v>
+      <v>3</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>12</v>
+    </spb>
+    <spb s="0">
+      <v>5</v>
+      <v>5</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>14</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+  <s>
+    <k n="image" t="i"/>
+  </s>
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <richProperties>
+    <rPr n="IsHeroField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty>
+      <rpv i="0">1</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+</richValueRels>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB74AD48-8818-4F16-A1EF-775DDFA5E2B2}" name="mpg" displayName="mpg" ref="A1:I399" totalsRowShown="0">
+  <autoFilter ref="A1:I399" xr:uid="{EB74AD48-8818-4F16-A1EF-775DDFA5E2B2}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{59C2461F-1099-4FA4-A5CA-DEFCAAB13837}" name="mpg"/>
+    <tableColumn id="2" xr3:uid="{F8B1D5B3-E7BC-4899-ABA2-3D99D59DEC99}" name="cylinders"/>
+    <tableColumn id="3" xr3:uid="{812544E5-2C76-47E4-9DC5-C1914BAE972A}" name="displacement"/>
+    <tableColumn id="4" xr3:uid="{C4A7A080-D961-478D-ABB2-51BEFCEAFE30}" name="horsepower"/>
+    <tableColumn id="5" xr3:uid="{E8D4FAAE-C184-494C-B6DC-EC08C069911E}" name="weight"/>
+    <tableColumn id="6" xr3:uid="{D656B482-4E84-4281-8EE1-F2ABCD5EC5C1}" name="acceleration"/>
+    <tableColumn id="7" xr3:uid="{9F088A06-66DC-4876-81F2-CF278FB00C26}" name="model_year"/>
+    <tableColumn id="8" xr3:uid="{D66F1E43-FDC8-4D2F-B11E-8A2C975696C4}" name="origin"/>
+    <tableColumn id="9" xr3:uid="{93A0E0F7-4C69-4EAB-8EE5-4683F6856557}" name="name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1816,6 +3271,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <cols>
+    <col min="2" max="2" width="9.04296875" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.76953125" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A1" t="s">
@@ -13372,5 +14834,1657 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46B40B8-6580-4A1F-A77A-8853B3B88ACB}">
+  <dimension ref="A1:J170"/>
+  <sheetViews>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A1" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A5" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A6" t="e" cm="1" vm="1">
+        <f t="array" ref="A6">_xlfn._xlws.PY(0,1,mpg[[#Headers],[#Data]])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A8" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A9" t="str" cm="1">
+        <f t="array" ref="A9:J20">IFERROR(_FV(A6,"arrayPreview"),_xlfn._DF_Python_str(A6))</f>
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v>mpg</v>
+      </c>
+      <c r="C9" t="str">
+        <v>cylinders</v>
+      </c>
+      <c r="D9" t="str">
+        <v>displacement</v>
+      </c>
+      <c r="E9" t="str">
+        <v>horsepower</v>
+      </c>
+      <c r="F9" t="str">
+        <v>weight</v>
+      </c>
+      <c r="G9" t="str">
+        <v>acceleration</v>
+      </c>
+      <c r="H9" t="str">
+        <v>model_year</v>
+      </c>
+      <c r="I9" t="str">
+        <v>origin</v>
+      </c>
+      <c r="J9" t="str">
+        <v>name</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>307</v>
+      </c>
+      <c r="E10">
+        <v>130</v>
+      </c>
+      <c r="F10">
+        <v>3504</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>70</v>
+      </c>
+      <c r="I10" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J10" t="str">
+        <v>chevrolet chevelle malibu</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>350</v>
+      </c>
+      <c r="E11">
+        <v>165</v>
+      </c>
+      <c r="F11">
+        <v>3693</v>
+      </c>
+      <c r="G11">
+        <v>11.5</v>
+      </c>
+      <c r="H11">
+        <v>70</v>
+      </c>
+      <c r="I11" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J11" t="str">
+        <v>buick skylark 320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>318</v>
+      </c>
+      <c r="E12">
+        <v>150</v>
+      </c>
+      <c r="F12">
+        <v>3436</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>70</v>
+      </c>
+      <c r="I12" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J12" t="str">
+        <v>plymouth satellite</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>304</v>
+      </c>
+      <c r="E13">
+        <v>150</v>
+      </c>
+      <c r="F13">
+        <v>3433</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>70</v>
+      </c>
+      <c r="I13" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J13" t="str">
+        <v>amc rebel sst</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>302</v>
+      </c>
+      <c r="E14">
+        <v>140</v>
+      </c>
+      <c r="F14">
+        <v>3449</v>
+      </c>
+      <c r="G14">
+        <v>10.5</v>
+      </c>
+      <c r="H14">
+        <v>70</v>
+      </c>
+      <c r="I14" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J14" t="str">
+        <v>ford torino</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A15" t="str">
+        <v>...</v>
+      </c>
+      <c r="B15" t="str">
+        <v>...</v>
+      </c>
+      <c r="C15" t="str">
+        <v>...</v>
+      </c>
+      <c r="D15" t="str">
+        <v>...</v>
+      </c>
+      <c r="E15" t="str">
+        <v>...</v>
+      </c>
+      <c r="F15" t="str">
+        <v>...</v>
+      </c>
+      <c r="G15" t="str">
+        <v>...</v>
+      </c>
+      <c r="H15" t="str">
+        <v>...</v>
+      </c>
+      <c r="I15" t="str">
+        <v>...</v>
+      </c>
+      <c r="J15" t="str">
+        <v>...</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A16">
+        <v>393</v>
+      </c>
+      <c r="B16">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>140</v>
+      </c>
+      <c r="E16">
+        <v>86</v>
+      </c>
+      <c r="F16">
+        <v>2790</v>
+      </c>
+      <c r="G16">
+        <v>15.6</v>
+      </c>
+      <c r="H16">
+        <v>82</v>
+      </c>
+      <c r="I16" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J16" t="str">
+        <v>ford mustang gl</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A17">
+        <v>394</v>
+      </c>
+      <c r="B17">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>97</v>
+      </c>
+      <c r="E17">
+        <v>52</v>
+      </c>
+      <c r="F17">
+        <v>2130</v>
+      </c>
+      <c r="G17">
+        <v>24.6</v>
+      </c>
+      <c r="H17">
+        <v>82</v>
+      </c>
+      <c r="I17" t="str">
+        <v>europe</v>
+      </c>
+      <c r="J17" t="str">
+        <v>vw pickup</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A18">
+        <v>395</v>
+      </c>
+      <c r="B18">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>135</v>
+      </c>
+      <c r="E18">
+        <v>84</v>
+      </c>
+      <c r="F18">
+        <v>2295</v>
+      </c>
+      <c r="G18">
+        <v>11.6</v>
+      </c>
+      <c r="H18">
+        <v>82</v>
+      </c>
+      <c r="I18" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J18" t="str">
+        <v>dodge rampage</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A19">
+        <v>396</v>
+      </c>
+      <c r="B19">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>120</v>
+      </c>
+      <c r="E19">
+        <v>79</v>
+      </c>
+      <c r="F19">
+        <v>2625</v>
+      </c>
+      <c r="G19">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H19">
+        <v>82</v>
+      </c>
+      <c r="I19" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J19" t="str">
+        <v>ford ranger</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A20">
+        <v>397</v>
+      </c>
+      <c r="B20">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>119</v>
+      </c>
+      <c r="E20">
+        <v>82</v>
+      </c>
+      <c r="F20">
+        <v>2720</v>
+      </c>
+      <c r="G20">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H20">
+        <v>82</v>
+      </c>
+      <c r="I20" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J20" t="str">
+        <v>chevy s-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A23" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A24" t="e" cm="1" vm="2">
+        <f t="array" ref="A24">_xlfn._xlws.PY(1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A26" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A27" t="str" cm="1">
+        <f t="array" ref="A27:C36">IFERROR(_FV(A24,"arrayPreview"),_xlfn._DF_Python_str(A24))</f>
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <v>missing</v>
+      </c>
+      <c r="C27" t="str">
+        <v>dtype</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A28" t="str">
+        <v>mpg</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="str">
+        <v>&lt;Float64DType&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A29" t="str">
+        <v>cylinders</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="str">
+        <v>&lt;Int64DType&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A30" t="str">
+        <v>displacement</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="str">
+        <v>&lt;Float64DType&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A31" t="str">
+        <v>horsepower</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31" t="str">
+        <v>&lt;Float64DType&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A32" t="str">
+        <v>weight</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="str">
+        <v>&lt;Int64DType&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A33" t="str">
+        <v>acceleration</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="str">
+        <v>&lt;Float64DType&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A34" t="str">
+        <v>model_year</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="str">
+        <v>&lt;Int64DType&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A35" t="str">
+        <v>origin</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="str">
+        <v>&lt;ObjectDType&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A36" t="str">
+        <v>name</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="str">
+        <v>&lt;ObjectDType&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A39" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A40" t="e" cm="1" vm="3">
+        <f t="array" ref="A40">_xlfn._xlws.PY(2,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A59" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A60" t="e" cm="1" vm="4">
+        <f t="array" ref="A60">_xlfn._xlws.PY(3,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A62" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A63" t="str" cm="1">
+        <f t="array" ref="A63:A64">IFERROR(_FV(A60,"arrayPreview"),_xlfn._DF_Python_str(A60))</f>
+        <v>&lt;DataFrame&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A64" t="str">
+        <v>&lt;Series&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A67" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A68" t="e" cm="1" vm="5">
+        <f t="array" ref="A68">_xlfn._xlws.PY(4,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A70" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A71" t="str" cm="1">
+        <f t="array" ref="A71:G77">IFERROR(_FV(A68,"arrayPreview"),_xlfn._DF_Python_str(A68))</f>
+        <v/>
+      </c>
+      <c r="B71" t="str">
+        <v>mpg</v>
+      </c>
+      <c r="C71" t="str">
+        <v>cylinders</v>
+      </c>
+      <c r="D71" t="str">
+        <v>displacement</v>
+      </c>
+      <c r="E71" t="str">
+        <v>horsepower</v>
+      </c>
+      <c r="F71" t="str">
+        <v>weight</v>
+      </c>
+      <c r="G71" t="str">
+        <v>acceleration</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A72" t="str">
+        <v>mpg</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>-0.77539628542055394</v>
+      </c>
+      <c r="D72">
+        <v>-0.80420282480589789</v>
+      </c>
+      <c r="E72">
+        <v>-0.77842678389777609</v>
+      </c>
+      <c r="F72">
+        <v>-0.8317409332443344</v>
+      </c>
+      <c r="G72">
+        <v>0.42028891210165054</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A73" t="str">
+        <v>cylinders</v>
+      </c>
+      <c r="B73">
+        <v>-0.77539628542055394</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0.95072139013924151</v>
+      </c>
+      <c r="E73">
+        <v>0.84298335691865678</v>
+      </c>
+      <c r="F73">
+        <v>0.89601679545339441</v>
+      </c>
+      <c r="G73">
+        <v>-0.50541948905217582</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A74" t="str">
+        <v>displacement</v>
+      </c>
+      <c r="B74">
+        <v>-0.80420282480589789</v>
+      </c>
+      <c r="C74">
+        <v>0.95072139013924151</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0.89725700184347001</v>
+      </c>
+      <c r="F74">
+        <v>0.93282414684163395</v>
+      </c>
+      <c r="G74">
+        <v>-0.54368408350092989</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A75" t="str">
+        <v>horsepower</v>
+      </c>
+      <c r="B75">
+        <v>-0.77842678389777609</v>
+      </c>
+      <c r="C75">
+        <v>0.84298335691865678</v>
+      </c>
+      <c r="D75">
+        <v>0.89725700184347001</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>0.86453773757414554</v>
+      </c>
+      <c r="G75">
+        <v>-0.68919551033423765</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A76" t="str">
+        <v>weight</v>
+      </c>
+      <c r="B76">
+        <v>-0.8317409332443344</v>
+      </c>
+      <c r="C76">
+        <v>0.89601679545339441</v>
+      </c>
+      <c r="D76">
+        <v>0.93282414684163395</v>
+      </c>
+      <c r="E76">
+        <v>0.86453773757414554</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>-0.4174573199403932</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A77" t="str">
+        <v>acceleration</v>
+      </c>
+      <c r="B77">
+        <v>0.42028891210165054</v>
+      </c>
+      <c r="C77">
+        <v>-0.50541948905217582</v>
+      </c>
+      <c r="D77">
+        <v>-0.54368408350092989</v>
+      </c>
+      <c r="E77">
+        <v>-0.68919551033423765</v>
+      </c>
+      <c r="F77">
+        <v>-0.4174573199403932</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A80" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A81" t="e" cm="1" vm="6">
+        <f t="array" ref="A81">_xlfn._xlws.PY(5,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A83" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A84" t="str" cm="1">
+        <f t="array" ref="A84:B87">IFERROR(_FV(A81,"arrayPreview"),_xlfn._DF_Python_str(A81))</f>
+        <v>origin</v>
+      </c>
+      <c r="B84" t="str">
+        <v>mpg</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A85" t="str">
+        <v>europe</v>
+      </c>
+      <c r="B85">
+        <v>27.891428571428573</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A86" t="str">
+        <v>japan</v>
+      </c>
+      <c r="B86">
+        <v>30.450632911392404</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A87" t="str">
+        <v>usa</v>
+      </c>
+      <c r="B87">
+        <v>20.083534136546184</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A90" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A91" t="e" cm="1" vm="7">
+        <f t="array" ref="A91">_xlfn._xlws.PY(6,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A93" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A94" t="str" cm="1">
+        <f t="array" ref="A94:D98">IFERROR(_FV(A91,"arrayPreview"),_xlfn._DF_Python_str(A91))</f>
+        <v/>
+      </c>
+      <c r="B94" t="str">
+        <v>mpg</v>
+      </c>
+      <c r="C94" t="str">
+        <v>cylinders</v>
+      </c>
+      <c r="D94" t="str">
+        <v>horsepower</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A95" t="str">
+        <v>mean</v>
+      </c>
+      <c r="B95">
+        <v>23.514572864321607</v>
+      </c>
+      <c r="C95">
+        <v>5.4547738693467336</v>
+      </c>
+      <c r="D95">
+        <v>104.46938775510205</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A96" t="str">
+        <v>median</v>
+      </c>
+      <c r="B96">
+        <v>23</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A97" t="str">
+        <v>mode</v>
+      </c>
+      <c r="B97">
+        <v>13</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A98" t="str">
+        <v>range</v>
+      </c>
+      <c r="B98">
+        <v>37.6</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A101" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A102" t="e" cm="1" vm="2">
+        <f t="array" ref="A102">_xlfn._xlws.PY(7,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A104" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A105" t="str" cm="1">
+        <f t="array" ref="A105:C114">IFERROR(_FV(A102,"arrayPreview"),_xlfn._DF_Python_str(A102))</f>
+        <v/>
+      </c>
+      <c r="B105" t="str">
+        <v>missing</v>
+      </c>
+      <c r="C105" t="str">
+        <v>dtype</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A106" t="str">
+        <v>mpg</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106" t="str">
+        <v>&lt;Float64DType&gt;</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A107" t="str">
+        <v>cylinders</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107" t="str">
+        <v>&lt;Int64DType&gt;</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A108" t="str">
+        <v>displacement</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108" t="str">
+        <v>&lt;Float64DType&gt;</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A109" t="str">
+        <v>horsepower</v>
+      </c>
+      <c r="B109">
+        <v>6</v>
+      </c>
+      <c r="C109" t="str">
+        <v>&lt;Float64DType&gt;</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A110" t="str">
+        <v>weight</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110" t="str">
+        <v>&lt;Int64DType&gt;</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A111" t="str">
+        <v>acceleration</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111" t="str">
+        <v>&lt;Float64DType&gt;</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A112" t="str">
+        <v>model_year</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112" t="str">
+        <v>&lt;Int64DType&gt;</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A113" t="str">
+        <v>origin</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113" t="str">
+        <v>&lt;ObjectDType&gt;</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A114" t="str">
+        <v>name</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114" t="str">
+        <v>&lt;ObjectDType&gt;</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A117" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A118" t="e" cm="1" vm="8">
+        <f t="array" ref="A118">_xlfn._xlws.PY(8,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A137" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A138" t="e" cm="1" vm="9">
+        <f t="array" ref="A138">_xlfn._xlws.PY(9,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A157" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A158" t="e" cm="1" vm="10">
+        <f t="array" ref="A158">_xlfn._xlws.PY(10,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A160" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A161" t="str" cm="1">
+        <f t="array" ref="A161:F166">IFERROR(_FV(A158,"arrayPreview"),_xlfn._DF_Python_str(A158))</f>
+        <v/>
+      </c>
+      <c r="B161" t="str">
+        <v>mpg</v>
+      </c>
+      <c r="C161" t="str">
+        <v>cylinders</v>
+      </c>
+      <c r="D161" t="str">
+        <v>displacement</v>
+      </c>
+      <c r="E161" t="str">
+        <v>horsepower</v>
+      </c>
+      <c r="F161" t="str">
+        <v>weight</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A162" t="str">
+        <v>mpg</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>-0.77539628542055394</v>
+      </c>
+      <c r="D162">
+        <v>-0.80420282480589789</v>
+      </c>
+      <c r="E162">
+        <v>-0.77842678389777609</v>
+      </c>
+      <c r="F162">
+        <v>-0.8317409332443344</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A163" t="str">
+        <v>cylinders</v>
+      </c>
+      <c r="B163">
+        <v>-0.77539628542055394</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>0.95072139013924151</v>
+      </c>
+      <c r="E163">
+        <v>0.84298335691865678</v>
+      </c>
+      <c r="F163">
+        <v>0.89601679545339441</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A164" t="str">
+        <v>displacement</v>
+      </c>
+      <c r="B164">
+        <v>-0.80420282480589789</v>
+      </c>
+      <c r="C164">
+        <v>0.95072139013924151</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>0.89725700184347001</v>
+      </c>
+      <c r="F164">
+        <v>0.93282414684163395</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A165" t="str">
+        <v>horsepower</v>
+      </c>
+      <c r="B165">
+        <v>-0.77842678389777609</v>
+      </c>
+      <c r="C165">
+        <v>0.84298335691865678</v>
+      </c>
+      <c r="D165">
+        <v>0.89725700184347001</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>0.86453773757414554</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A166" t="str">
+        <v>weight</v>
+      </c>
+      <c r="B166">
+        <v>-0.8317409332443344</v>
+      </c>
+      <c r="C166">
+        <v>0.89601679545339441</v>
+      </c>
+      <c r="D166">
+        <v>0.93282414684163395</v>
+      </c>
+      <c r="E166">
+        <v>0.86453773757414554</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A169" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A170" t="e" cm="1" vm="11">
+        <f t="array" ref="A170">_xlfn._xlws.PY(11,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="isPythonAnalysisSheet" r:id="rId1"/>
+    <customPr name="lastPythonCell" r:id="rId2"/>
+  </customProperties>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFA923F-7402-4E09-8C01-DFC5B9F6289A}">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A1" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A5" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A6" t="e" cm="1" vm="1">
+        <f t="array" ref="A6">_xlfn._xlws.PY(0,1,mpg[[#Headers],[#Data]])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A8" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A9" t="str" cm="1">
+        <f t="array" ref="A9:J20">IFERROR(_FV(A6,"arrayPreview"),_xlfn._DF_Python_str(A6))</f>
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v>mpg</v>
+      </c>
+      <c r="C9" t="str">
+        <v>cylinders</v>
+      </c>
+      <c r="D9" t="str">
+        <v>displacement</v>
+      </c>
+      <c r="E9" t="str">
+        <v>horsepower</v>
+      </c>
+      <c r="F9" t="str">
+        <v>weight</v>
+      </c>
+      <c r="G9" t="str">
+        <v>acceleration</v>
+      </c>
+      <c r="H9" t="str">
+        <v>model_year</v>
+      </c>
+      <c r="I9" t="str">
+        <v>origin</v>
+      </c>
+      <c r="J9" t="str">
+        <v>name</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>307</v>
+      </c>
+      <c r="E10">
+        <v>130</v>
+      </c>
+      <c r="F10">
+        <v>3504</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>70</v>
+      </c>
+      <c r="I10" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J10" t="str">
+        <v>chevrolet chevelle malibu</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>350</v>
+      </c>
+      <c r="E11">
+        <v>165</v>
+      </c>
+      <c r="F11">
+        <v>3693</v>
+      </c>
+      <c r="G11">
+        <v>11.5</v>
+      </c>
+      <c r="H11">
+        <v>70</v>
+      </c>
+      <c r="I11" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J11" t="str">
+        <v>buick skylark 320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>318</v>
+      </c>
+      <c r="E12">
+        <v>150</v>
+      </c>
+      <c r="F12">
+        <v>3436</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>70</v>
+      </c>
+      <c r="I12" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J12" t="str">
+        <v>plymouth satellite</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>304</v>
+      </c>
+      <c r="E13">
+        <v>150</v>
+      </c>
+      <c r="F13">
+        <v>3433</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>70</v>
+      </c>
+      <c r="I13" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J13" t="str">
+        <v>amc rebel sst</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>302</v>
+      </c>
+      <c r="E14">
+        <v>140</v>
+      </c>
+      <c r="F14">
+        <v>3449</v>
+      </c>
+      <c r="G14">
+        <v>10.5</v>
+      </c>
+      <c r="H14">
+        <v>70</v>
+      </c>
+      <c r="I14" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J14" t="str">
+        <v>ford torino</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A15" t="str">
+        <v>...</v>
+      </c>
+      <c r="B15" t="str">
+        <v>...</v>
+      </c>
+      <c r="C15" t="str">
+        <v>...</v>
+      </c>
+      <c r="D15" t="str">
+        <v>...</v>
+      </c>
+      <c r="E15" t="str">
+        <v>...</v>
+      </c>
+      <c r="F15" t="str">
+        <v>...</v>
+      </c>
+      <c r="G15" t="str">
+        <v>...</v>
+      </c>
+      <c r="H15" t="str">
+        <v>...</v>
+      </c>
+      <c r="I15" t="str">
+        <v>...</v>
+      </c>
+      <c r="J15" t="str">
+        <v>...</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A16">
+        <v>393</v>
+      </c>
+      <c r="B16">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>140</v>
+      </c>
+      <c r="E16">
+        <v>86</v>
+      </c>
+      <c r="F16">
+        <v>2790</v>
+      </c>
+      <c r="G16">
+        <v>15.6</v>
+      </c>
+      <c r="H16">
+        <v>82</v>
+      </c>
+      <c r="I16" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J16" t="str">
+        <v>ford mustang gl</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A17">
+        <v>394</v>
+      </c>
+      <c r="B17">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>97</v>
+      </c>
+      <c r="E17">
+        <v>52</v>
+      </c>
+      <c r="F17">
+        <v>2130</v>
+      </c>
+      <c r="G17">
+        <v>24.6</v>
+      </c>
+      <c r="H17">
+        <v>82</v>
+      </c>
+      <c r="I17" t="str">
+        <v>europe</v>
+      </c>
+      <c r="J17" t="str">
+        <v>vw pickup</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A18">
+        <v>395</v>
+      </c>
+      <c r="B18">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>135</v>
+      </c>
+      <c r="E18">
+        <v>84</v>
+      </c>
+      <c r="F18">
+        <v>2295</v>
+      </c>
+      <c r="G18">
+        <v>11.6</v>
+      </c>
+      <c r="H18">
+        <v>82</v>
+      </c>
+      <c r="I18" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J18" t="str">
+        <v>dodge rampage</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A19">
+        <v>396</v>
+      </c>
+      <c r="B19">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>120</v>
+      </c>
+      <c r="E19">
+        <v>79</v>
+      </c>
+      <c r="F19">
+        <v>2625</v>
+      </c>
+      <c r="G19">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H19">
+        <v>82</v>
+      </c>
+      <c r="I19" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J19" t="str">
+        <v>ford ranger</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A20">
+        <v>397</v>
+      </c>
+      <c r="B20">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>119</v>
+      </c>
+      <c r="E20">
+        <v>82</v>
+      </c>
+      <c r="F20">
+        <v>2720</v>
+      </c>
+      <c r="G20">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H20">
+        <v>82</v>
+      </c>
+      <c r="I20" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J20" t="str">
+        <v>chevy s-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A23" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="A24" t="e" cm="1" vm="12">
+        <f t="array" ref="A24">_xlfn._xlws.PY(12,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="isPythonAnalysisSheet" r:id="rId1"/>
+    <customPr name="lastPythonCell" r:id="rId2"/>
+  </customProperties>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>